--- a/src/analysis_examples/circadb/results_lomb/cosinor_10361023_prox1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10361023_prox1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25893243302061947, 0.4337451318157432]</t>
+          <t>[0.2581886446943804, 0.43448892014198226]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.107917622204639e-08</v>
+        <v>5.860458895945442e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>5.107917622204639e-08</v>
+        <v>5.860458895945442e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9308422677303092</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5002668948259658, 0.5913867067766992]</t>
+          <t>[0.5002528867938164, 0.5914007148088486]</t>
         </is>
       </c>
       <c r="U2" t="n">
